--- a/LinuxNote/方案企划/架构地址规划.xlsx
+++ b/LinuxNote/方案企划/架构地址规划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>主机名</t>
   </si>
@@ -25,16 +25,25 @@
     <t>角色</t>
   </si>
   <si>
+    <t>ansible</t>
+  </si>
+  <si>
+    <t>192.168.1.110</t>
+  </si>
+  <si>
+    <t>主控</t>
+  </si>
+  <si>
     <t>lb-vip</t>
   </si>
   <si>
-    <t>192.168.10.100</t>
+    <t>192.168.1.99</t>
   </si>
   <si>
     <t>lb-nginx1</t>
   </si>
   <si>
-    <t>192.168.10.11</t>
+    <t>192.168.1.11</t>
   </si>
   <si>
     <t>负载均衡器</t>
@@ -43,7 +52,7 @@
     <t>lb-nginx2</t>
   </si>
   <si>
-    <t>192.168.10.12</t>
+    <t>192.168.1.12</t>
   </si>
   <si>
     <t>负载均衡器[备用]</t>
@@ -52,7 +61,7 @@
     <t>web-nginx1</t>
   </si>
   <si>
-    <t>192.168.10.21</t>
+    <t>192.168.1.21</t>
   </si>
   <si>
     <t>静态web</t>
@@ -61,13 +70,13 @@
     <t>web-nginx2</t>
   </si>
   <si>
-    <t>192.168.10.22</t>
+    <t>192.168.1.22</t>
   </si>
   <si>
     <t>tomcat1</t>
   </si>
   <si>
-    <t>192.168.10.31</t>
+    <t>192.168.1.31</t>
   </si>
   <si>
     <t>动态app</t>
@@ -76,13 +85,13 @@
     <t>tomcat2</t>
   </si>
   <si>
-    <t>192.168.10.32</t>
+    <t>192.168.1.32</t>
   </si>
   <si>
     <t>redis-cluster1</t>
   </si>
   <si>
-    <t>192.168.10.41</t>
+    <t>192.168.1.41</t>
   </si>
   <si>
     <t>redis集群</t>
@@ -91,25 +100,25 @@
     <t>redis-cluster2</t>
   </si>
   <si>
-    <t>192.168.10.42</t>
+    <t>192.168.1.42</t>
   </si>
   <si>
     <t>redis-cluster3</t>
   </si>
   <si>
-    <t>192.168.10.43</t>
+    <t>192.168.1.43</t>
   </si>
   <si>
     <t>mycat-vip</t>
   </si>
   <si>
-    <t>192.168.10.150</t>
+    <t>192.168.1.150</t>
   </si>
   <si>
     <t>mycat1</t>
   </si>
   <si>
-    <t>192.168.10.51</t>
+    <t>192.168.1.51</t>
   </si>
   <si>
     <t>数据库中间件</t>
@@ -118,7 +127,7 @@
     <t>mycat2</t>
   </si>
   <si>
-    <t>192.168.10.52</t>
+    <t>192.168.1.52</t>
   </si>
   <si>
     <t>数据库中间件[备用]</t>
@@ -127,7 +136,7 @@
     <t>mha-mysql-manager</t>
   </si>
   <si>
-    <t>192.168.10.61</t>
+    <t>192.168.1.61</t>
   </si>
   <si>
     <t>mha集群</t>
@@ -136,31 +145,31 @@
     <t>mha-mysql-master</t>
   </si>
   <si>
-    <t>192.168.10.62</t>
+    <t>192.168.1.62</t>
   </si>
   <si>
     <t>mha-mysql-master-bak</t>
   </si>
   <si>
-    <t>192.168.10.63</t>
+    <t>192.168.1.63</t>
   </si>
   <si>
     <t>mha-mysql-slave</t>
   </si>
   <si>
-    <t>192.168.10.64</t>
+    <t>192.168.1.64</t>
   </si>
   <si>
     <t>dfs-client-vip</t>
   </si>
   <si>
-    <t>192.168.10.200</t>
+    <t>192.168.1.200</t>
   </si>
   <si>
     <t>dfs-client1</t>
   </si>
   <si>
-    <t>192.168.10.71</t>
+    <t>192.168.1.71</t>
   </si>
   <si>
     <t>FastDFS</t>
@@ -169,40 +178,61 @@
     <t>dfs-client2</t>
   </si>
   <si>
-    <t>192.168.10.72</t>
+    <t>192.168.1.72</t>
   </si>
   <si>
     <t>dfs-tracker1</t>
   </si>
   <si>
-    <t>192.168.10.73</t>
+    <t>192.168.1.73</t>
   </si>
   <si>
     <t>dfs-tracker2</t>
   </si>
   <si>
-    <t>192.168.10.74</t>
+    <t>192.168.1.74</t>
   </si>
   <si>
     <t>dfs-storage1</t>
   </si>
   <si>
-    <t>192.168.10.75</t>
+    <t>192.168.1.75</t>
   </si>
   <si>
     <t>dfs-storage2</t>
   </si>
   <si>
-    <t>192.168.10.76</t>
+    <t>192.168.1.76</t>
   </si>
   <si>
     <t>db-back</t>
   </si>
   <si>
-    <t>192.168.10.81</t>
+    <t>192.168.1.81</t>
   </si>
   <si>
     <t>数据库冷备份</t>
+  </si>
+  <si>
+    <t>待做项目</t>
+  </si>
+  <si>
+    <t>zabbix</t>
+  </si>
+  <si>
+    <t>192.168.1.91</t>
+  </si>
+  <si>
+    <t>监控</t>
+  </si>
+  <si>
+    <t>docker-elk</t>
+  </si>
+  <si>
+    <t>192.168.1.92</t>
+  </si>
+  <si>
+    <t>日志分析</t>
   </si>
 </sst>
 </file>
@@ -210,12 +240,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +262,77 @@
     </font>
     <font>
       <sz val="12.75"/>
+      <color rgb="FF333333"/>
+      <name val="Times"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.75"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +346,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -269,51 +378,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,25 +408,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,24 +423,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,19 +439,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="2" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,181 +529,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,6 +652,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -689,38 +763,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,26 +801,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,41 +859,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -830,10 +867,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,217 +879,226 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1373,10 +1419,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="2"/>
@@ -1384,55 +1430,55 @@
     <col min="1" max="1" width="36.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="13" t="s">
@@ -1446,121 +1492,121 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="C8" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="9" t="s">
+      <c r="C14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="B16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="9" t="s">
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
       <c r="A20" s="13" t="s">
@@ -1574,125 +1620,183 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="16" t="s">
+      <c r="C22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="12" t="s">
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="9" t="s">
+      <c r="B23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C23" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>38</v>
+      <c r="B24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C25" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="16" t="s">
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="16" t="s">
+      <c r="C28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="12" t="s">
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="21" t="s">
+      <c r="B29" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="C29" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="6" t="s">
+      <c r="B30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="9" t="s">
+      <c r="B31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>49</v>
+      <c r="B32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="25" t="s">
+      <c r="A33" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="14" t="s">
         <v>62</v>
       </c>
+      <c r="C33" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:3">
+      <c r="A37" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:3">
+      <c r="A38" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:3">
+      <c r="A40" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A37:C37"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/LinuxNote/方案企划/架构地址规划.xlsx
+++ b/LinuxNote/方案企划/架构地址规划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>主机名</t>
   </si>
@@ -133,6 +133,12 @@
     <t>数据库中间件[备用]</t>
   </si>
   <si>
+    <t>mha-mysql-vip</t>
+  </si>
+  <si>
+    <t>192.168.1.160</t>
+  </si>
+  <si>
     <t>mha-mysql-manager</t>
   </si>
   <si>
@@ -229,7 +235,7 @@
     <t>docker-elk</t>
   </si>
   <si>
-    <t>192.168.1.92</t>
+    <t>192.168.1.222</t>
   </si>
   <si>
     <t>日志分析</t>
@@ -240,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -288,7 +294,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,127 +423,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -451,187 +457,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,6 +764,63 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,68 +842,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,10 +873,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,137 +885,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1071,6 +1077,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,10 +1434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="2"/>
@@ -1625,25 +1640,23 @@
       <c r="C21" s="16"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" customHeight="1" spans="1:3">
       <c r="A23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
@@ -1654,49 +1667,54 @@
         <v>45</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>41</v>
+      <c r="C25" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:3">
+      <c r="A26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="21"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" customHeight="1" spans="1:3">
       <c r="A29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="C29" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
@@ -1707,18 +1725,18 @@
         <v>56</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:3">
       <c r="A31" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
@@ -1729,73 +1747,84 @@
         <v>60</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="22" t="s">
+      <c r="C33" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:3">
+      <c r="A34" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B34" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C34" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:3">
+      <c r="A36" s="25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="27" t="s">
+      <c r="A38" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:3">
+      <c r="A39" s="29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
+      <c r="B39" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="28" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:3">
+      <c r="A41" s="29" t="s">
         <v>72</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
